--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Шапка.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Шапка.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="18780" windowHeight="13290"/>
+    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="13296"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,15 +19,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
-  <si>
-    <t>№Поз</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Наименование деталей</t>
   </si>
@@ -120,54 +122,80 @@
     <t>Воронка</t>
   </si>
   <si>
-    <t>Кол-во         непригодных,      шт</t>
-  </si>
-  <si>
-    <t>Фактически пригодных деталей,    шт</t>
-  </si>
-  <si>
-    <t>Остаточный ресурс детали,              %</t>
-  </si>
-  <si>
     <t>Начальник СПО                                             А.Д. Гавриленко</t>
   </si>
   <si>
-    <t>Кол-во по ТТН,  шт</t>
-  </si>
-  <si>
     <t>Втулка плунжера</t>
   </si>
   <si>
     <t>Фактическое количество деталей по акту приемки, шт.</t>
   </si>
   <si>
-    <t>Формокомплект бутылки  "ГОСТ 0,5 л." тип ХХI-В-28-1-500 (владелец ОАО "Гомельагрокомплект" дог. №25/04 от 25.04.2014)</t>
-  </si>
-  <si>
-    <t>Дата поставки  24.06.14 (c остаточным ресурсом 100 %)</t>
-  </si>
-  <si>
-    <t>FS-192</t>
-  </si>
-  <si>
     <t>В дополнительных поставках детали оставшиеся со старого формокомплекта!!!</t>
   </si>
   <si>
     <t>Кол-во брака, шт</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Формокомплект бутылки  "Аквадив 0.35 л." тип ХХI-В-28-2-350 (владелец ООО "Ведатранзит" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>дог. №25/04 от 25.04.2014</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Дата поставки  26.09.19 (c остаточным ресурсом 100 %)</t>
+  </si>
+  <si>
+    <t>ХХI-В-28-2-350</t>
+  </si>
+  <si>
+    <t>Остаточный ресурс детали, %</t>
+  </si>
+  <si>
+    <t>Фактически пригодных деталей, шт.</t>
+  </si>
+  <si>
+    <t>Кол-во непригодных, шт.</t>
+  </si>
+  <si>
+    <t>Кол-во по ТТН, шт</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -288,6 +316,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -722,9 +758,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -742,12 +778,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -761,11 +794,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,14 +824,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -812,18 +845,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -878,10 +899,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -905,7 +926,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -933,13 +954,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,11 +976,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,8 +989,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -978,25 +999,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1005,6 +1015,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1014,74 +1041,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1093,7 +1060,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F4F4F4"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1128,7 +1095,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1160,9 +1127,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1194,6 +1162,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1369,61 +1338,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="K5" sqref="K5:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75">
-      <c r="A1" s="111" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
+    <row r="1" spans="1:13" ht="15.6">
+      <c r="A1" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" thickBot="1">
+    <row r="3" spans="1:13" ht="16.2" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1431,435 +1400,380 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="M3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" ht="64.5" thickBot="1">
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
       <c r="A4" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="C4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="D4" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="43" t="s">
+      <c r="J4" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="48">
+        <v>1</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="53">
-        <v>1</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="56">
-        <v>30</v>
-      </c>
-      <c r="E5" s="56">
-        <v>30</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56">
+      <c r="D5" s="51">
+        <v>24</v>
+      </c>
+      <c r="E5" s="51">
+        <v>24</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51">
         <f>E5-F5</f>
-        <v>30</v>
-      </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="91"/>
+        <v>24</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="86"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="57">
+      <c r="A6" s="52">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="72" t="s">
-        <v>7</v>
+      <c r="B6" s="67" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E6" s="9">
-        <v>30</v>
-      </c>
-      <c r="F6" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="F6" s="25"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G16" si="0">E6-F6</f>
-        <v>30</v>
-      </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="62"/>
+        <v>24</v>
+      </c>
+      <c r="H6" s="61"/>
+      <c r="I6" s="57"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="92"/>
+      <c r="L6" s="87"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="57">
+      <c r="A7" s="52">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="72" t="s">
-        <v>5</v>
+      <c r="B7" s="67" t="s">
+        <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E7" s="9">
-        <v>40</v>
-      </c>
-      <c r="F7" s="26"/>
+        <v>32</v>
+      </c>
+      <c r="F7" s="25"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="62"/>
+        <v>32</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="92"/>
+      <c r="L7" s="87"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="57">
+      <c r="A8" s="52">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="72" t="s">
-        <v>6</v>
+      <c r="B8" s="67" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="D8" s="9">
+        <v>32</v>
+      </c>
+      <c r="E8" s="9">
+        <v>32</v>
+      </c>
+      <c r="F8" s="25"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="62">
-        <v>40</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>42</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H8" s="62"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="92">
-        <f>I8-K8</f>
-        <v>40</v>
-      </c>
+      <c r="L8" s="87"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="57">
+      <c r="A9" s="52">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="73" t="s">
-        <v>32</v>
+      <c r="B9" s="68" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="D9" s="9">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9">
+        <v>18</v>
+      </c>
+      <c r="F9" s="25"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="67"/>
-      <c r="I9" s="63">
-        <v>60</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>42</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H9" s="62"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="92">
-        <f t="shared" ref="L9:L16" si="2">I9-K9</f>
-        <v>60</v>
-      </c>
+      <c r="L9" s="87"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="57">
+      <c r="A10" s="52">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="72" t="s">
-        <v>38</v>
+      <c r="B10" s="67" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="D10" s="9">
+        <v>20</v>
+      </c>
+      <c r="E10" s="9">
+        <v>20</v>
+      </c>
+      <c r="F10" s="25"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="62">
-        <v>45</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>42</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H10" s="62"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="92">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
+      <c r="L10" s="87"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="57">
+      <c r="A11" s="52">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>9</v>
+      <c r="B11" s="67" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="38"/>
+        <v>39</v>
+      </c>
+      <c r="D11" s="9">
+        <v>60</v>
+      </c>
+      <c r="E11" s="9">
+        <v>60</v>
+      </c>
+      <c r="F11" s="37"/>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="63">
-        <v>106</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="9">
-        <v>12</v>
-      </c>
-      <c r="L11" s="92">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="M11" s="36"/>
+        <v>60</v>
+      </c>
+      <c r="H11" s="62"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="35"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A12" s="57">
+      <c r="A12" s="52">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="B12" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="39"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="63">
-        <v>48</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="H12" s="62"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="92">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="M12" s="36"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="35"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A13" s="57">
+      <c r="A13" s="52">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="B13" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="26"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="63">
-        <v>8</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="H13" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="58"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="92">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
+      <c r="L13" s="87"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A14" s="57">
+      <c r="A14" s="52">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="72" t="s">
-        <v>8</v>
+      <c r="B14" s="67" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E14" s="9">
-        <v>40</v>
-      </c>
-      <c r="F14" s="38"/>
+        <v>50</v>
+      </c>
+      <c r="F14" s="37"/>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="63">
-        <v>146</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="9">
-        <v>52</v>
-      </c>
-      <c r="L14" s="92">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H14" s="62"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="87"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A15" s="57">
+      <c r="A15" s="52">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="72" t="s">
-        <v>11</v>
+      <c r="B15" s="67" t="s">
+        <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D15" s="9">
-        <v>40</v>
-      </c>
-      <c r="E15" s="13">
-        <v>40</v>
-      </c>
-      <c r="F15" s="26"/>
+        <v>60</v>
+      </c>
+      <c r="E15" s="9">
+        <v>60</v>
+      </c>
+      <c r="F15" s="25"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="H15" s="67"/>
-      <c r="I15" s="63">
-        <v>148</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="9">
-        <v>34</v>
-      </c>
-      <c r="L15" s="92">
-        <f t="shared" si="2"/>
-        <v>114</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H15" s="62"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="87"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="58">
+      <c r="A16" s="53">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60">
+      <c r="B16" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="55">
+        <v>24</v>
+      </c>
+      <c r="E16" s="55">
+        <v>24</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="64">
-        <v>67</v>
-      </c>
-      <c r="J16" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" s="60">
-        <v>1</v>
-      </c>
-      <c r="L16" s="92">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H16" s="63"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="87"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="82"/>
+      <c r="A17" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="77"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1869,127 +1783,127 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1">
+    <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="B18" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-    </row>
-    <row r="19" spans="1:12" ht="64.5" thickBot="1">
-      <c r="A19" s="47" t="s">
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+    </row>
+    <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
+      <c r="A19" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="48" t="s">
+      <c r="F19" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
+      <c r="I19" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="93">
+      <c r="A20" s="88">
         <f>D5*700000</f>
-        <v>21000000</v>
-      </c>
-      <c r="B20" s="95">
+        <v>16800000</v>
+      </c>
+      <c r="B20" s="90">
         <v>41822</v>
       </c>
-      <c r="C20" s="104">
+      <c r="C20" s="99">
         <v>41832</v>
       </c>
-      <c r="D20" s="95">
+      <c r="D20" s="90">
         <v>41834</v>
       </c>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96">
+      <c r="E20" s="91"/>
+      <c r="F20" s="91">
         <v>1620706</v>
       </c>
-      <c r="G20" s="97">
+      <c r="G20" s="92">
         <f>F20/A$20</f>
-        <v>7.7176476190476184E-2</v>
-      </c>
-      <c r="H20" s="98">
+        <v>9.6470595238095244E-2</v>
+      </c>
+      <c r="H20" s="93">
         <f>A20-F20</f>
-        <v>19379294</v>
-      </c>
-      <c r="I20" s="99">
+        <v>15179294</v>
+      </c>
+      <c r="I20" s="94">
         <f>1-G20</f>
-        <v>0.92282352380952382</v>
-      </c>
-      <c r="J20" s="88"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
+        <v>0.9035294047619048</v>
+      </c>
+      <c r="J20" s="83"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="52"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="97">
+      <c r="A21" s="47"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="92">
         <f>F21/A$20</f>
         <v>0</v>
       </c>
-      <c r="H21" s="102">
+      <c r="H21" s="97">
         <f>H20-F21</f>
-        <v>19379294</v>
-      </c>
-      <c r="I21" s="103">
+        <v>15179294</v>
+      </c>
+      <c r="I21" s="98">
         <f>I20-G21</f>
-        <v>0.92282352380952382</v>
+        <v>0.9035294047619048</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A22" s="16"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="16"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1997,139 +1911,139 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="16"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="89"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="84"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="16"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="34"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="16"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="34"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="16"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="16"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="33"/>
+    <row r="30" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A31" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="70">
+    <row r="31" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A31" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="65">
         <f>SUM(E20:E30)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="69">
+      <c r="F31" s="64">
         <f>SUM(F20:F30)</f>
         <v>1620706</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="27">
         <f>SUM(G20:G30)</f>
-        <v>7.7176476190476184E-2</v>
-      </c>
-      <c r="H31" s="24">
+        <v>9.6470595238095244E-2</v>
+      </c>
+      <c r="H31" s="23">
         <f>A20-F31</f>
-        <v>19379294</v>
-      </c>
-      <c r="I31" s="37">
+        <v>15179294</v>
+      </c>
+      <c r="I31" s="36">
         <f>1-G31</f>
-        <v>0.92282352380952382</v>
-      </c>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
+        <v>0.9035294047619048</v>
+      </c>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1"/>
@@ -2144,12 +2058,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A35" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
+      <c r="A35" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2158,15 +2072,15 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="109" t="s">
+      <c r="A36" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="111"/>
+      <c r="C36" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2176,29 +2090,29 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="107">
+      <c r="A37" s="109">
         <f>A20-F31</f>
-        <v>19379294</v>
-      </c>
-      <c r="B37" s="108"/>
-      <c r="C37" s="94">
+        <v>15179294</v>
+      </c>
+      <c r="B37" s="110"/>
+      <c r="C37" s="89">
         <f>1-G31</f>
-        <v>0.92282352380952382</v>
-      </c>
-      <c r="D37" s="25">
+        <v>0.9035294047619048</v>
+      </c>
+      <c r="D37" s="24">
         <f>(C37/0.8)*100</f>
-        <v>115.35294047619047</v>
+        <v>112.94117559523809</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="116" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="116"/>
+      <c r="G37" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="106"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1"/>
@@ -2220,10 +2134,10 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.75">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.6">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2236,113 +2150,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="75"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="106"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="108"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="76"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="77"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="72"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="76"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="77"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="76"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="77"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="72"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="76"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="77"/>
+      <c r="A45" s="71"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="76"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="77"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="72"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="76"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
+      <c r="A47" s="71"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="76"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="77"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="72"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="76"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="77"/>
+      <c r="A49" s="71"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="72"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="76"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="77"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75">
+      <c r="F50" s="72"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="72"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="81"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="76"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2350,40 +2264,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="75"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="106"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="108"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="76"/>
+      <c r="A53" s="71"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="110"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="76"/>
+      <c r="A54" s="71"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="110"/>
-      <c r="J54" s="110"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2396,24 +2310,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="105"/>
-      <c r="C60" s="106"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="108"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="105"/>
-      <c r="C67" s="106"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="108"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G37:L37"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2421,6 +2329,12 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G37:L37"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2434,12 +2348,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2448,24 +2362,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Шапка.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Шапка.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Наименование деталей</t>
   </si>
@@ -32,12 +32,6 @@
     <t>Маркировка</t>
   </si>
   <si>
-    <t>Кол-во,  шт</t>
-  </si>
-  <si>
-    <t>Остаток, шт</t>
-  </si>
-  <si>
     <t>Черновая форма</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>Остаточный ресурс формо-комплекта, шт.</t>
   </si>
   <si>
-    <t>Марки-ровка</t>
-  </si>
-  <si>
     <t>Остаточный ресурс формо-комплекта, %.</t>
   </si>
   <si>
@@ -131,44 +122,6 @@
     <t>Фактическое количество деталей по акту приемки, шт.</t>
   </si>
   <si>
-    <t>В дополнительных поставках детали оставшиеся со старого формокомплекта!!!</t>
-  </si>
-  <si>
-    <t>Кол-во брака, шт</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Формокомплект бутылки  "Аквадив 0.35 л." тип ХХI-В-28-2-350 (владелец ООО "Ведатранзит" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>дог. №25/04 от 25.04.2014</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Дата поставки  26.09.19 (c остаточным ресурсом 100 %)</t>
-  </si>
-  <si>
-    <t>ХХI-В-28-2-350</t>
-  </si>
-  <si>
     <t>Остаточный ресурс детали, %</t>
   </si>
   <si>
@@ -182,6 +135,21 @@
   </si>
   <si>
     <t>№ п/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (владелец ООО "Ведатранзит" дог. №3 от 23.01.2019)</t>
+  </si>
+  <si>
+    <t>Дата поставки  03.10.2019 (c остаточным ресурсом 100 %)</t>
+  </si>
+  <si>
+    <t>ХХI-В-28-1-200-5</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки  "Круглая 0.2" тип ХХI-В-28-1-200-5</t>
   </si>
 </sst>
 </file>
@@ -195,7 +163,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -316,14 +284,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="5"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -351,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -474,19 +434,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -718,32 +665,6 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -760,14 +681,10 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -798,7 +715,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -807,31 +724,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -840,13 +757,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -855,51 +769,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -908,12 +809,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -922,7 +823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -945,9 +846,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -961,29 +859,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -993,45 +885,47 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1339,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:L16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1362,708 +1256,715 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.6">
+      <c r="A2" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="105" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="43" t="s">
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.2" thickBot="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1">
+      <c r="A5" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="43" t="s">
+      <c r="D5" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="113" t="s">
+      <c r="G5" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="45">
+        <v>1</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="47">
+        <v>24</v>
+      </c>
+      <c r="E6" s="47">
+        <v>24</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47">
+        <f>E6-F6</f>
+        <v>24</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="91"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="48">
+        <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="J4" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="112" t="s">
+      <c r="B7" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="7">
+        <v>24</v>
+      </c>
+      <c r="E7" s="7">
+        <v>24</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="7">
+        <f t="shared" ref="G7:G17" si="0">E7-F7</f>
+        <v>24</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="91"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="48">
+        <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="48">
-        <v>1</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="51">
-        <v>24</v>
-      </c>
-      <c r="E5" s="51">
-        <v>24</v>
-      </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51">
-        <f>E5-F5</f>
-        <v>24</v>
-      </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="86"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="52">
-        <f>A5+1</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="9">
-        <v>24</v>
-      </c>
-      <c r="E6" s="9">
-        <v>24</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="9">
-        <f t="shared" ref="G6:G16" si="0">E6-F6</f>
-        <v>24</v>
-      </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="87"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="52">
-        <f t="shared" ref="A7:A16" si="1">A6+1</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="D8" s="7">
         <v>32</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="7">
         <v>32</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="9">
+      <c r="F8" s="23"/>
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="87"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="52">
+      <c r="H8" s="54"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="91"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="48">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B9" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="7">
         <v>32</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="7">
         <v>32</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="9">
+      <c r="F9" s="23"/>
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="87"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="52">
+      <c r="H9" s="54"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="91"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B10" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="9">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9">
-        <v>18</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="9">
+      <c r="D10" s="7">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7">
+        <v>20</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="87"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="52">
+        <v>20</v>
+      </c>
+      <c r="H10" s="54"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="91"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="48">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B11" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="7">
         <v>20</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="7">
         <v>20</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="9">
+      <c r="F11" s="23"/>
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="87"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="52">
+      <c r="H11" s="54"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="91"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="48">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B12" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="7">
         <v>60</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="7">
         <v>60</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="9">
+      <c r="F12" s="35"/>
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="35"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A12" s="52">
+      <c r="H12" s="54"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="33"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A13" s="48">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="9">
+      <c r="B13" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="7">
+        <v>20</v>
+      </c>
+      <c r="E13" s="7">
+        <v>20</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="35"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A13" s="52">
+        <v>20</v>
+      </c>
+      <c r="H13" s="54"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A14" s="48">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="9">
+      <c r="B14" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="7">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7">
+        <v>8</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="87"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A14" s="52">
+        <v>8</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="91"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A15" s="48">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B15" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="7">
         <v>50</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="7">
         <v>50</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="9">
+      <c r="F15" s="35"/>
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="87"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A15" s="52">
+      <c r="H15" s="54"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="91"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A16" s="48">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B16" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="7">
         <v>60</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="7">
         <v>60</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="9">
+      <c r="F16" s="23"/>
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="87"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="53">
+      <c r="H16" s="54"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="91"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A17" s="49">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="55">
+      <c r="B17" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="51">
         <v>24</v>
       </c>
-      <c r="E16" s="55">
-        <v>24</v>
-      </c>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55">
+      <c r="F17" s="50"/>
+      <c r="G17" s="51">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="87"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="91"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="70"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-    </row>
-    <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="42" t="s">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+    </row>
+    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1">
+      <c r="A20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="43" t="s">
+      <c r="I20" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="88">
-        <f>D5*700000</f>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="77">
+        <f>D6*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="90">
-        <v>41822</v>
-      </c>
-      <c r="C20" s="99">
-        <v>41832</v>
-      </c>
-      <c r="D20" s="90">
-        <v>41834</v>
-      </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91">
-        <v>1620706</v>
-      </c>
-      <c r="G20" s="92">
-        <f>F20/A$20</f>
-        <v>9.6470595238095244E-2</v>
-      </c>
-      <c r="H20" s="93">
-        <f>A20-F20</f>
-        <v>15179294</v>
-      </c>
-      <c r="I20" s="94">
-        <f>1-G20</f>
-        <v>0.9035294047619048</v>
-      </c>
-      <c r="J20" s="83"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="92">
-        <f>F21/A$20</f>
+      <c r="B21" s="79">
+        <v>43754</v>
+      </c>
+      <c r="C21" s="88">
+        <v>43766</v>
+      </c>
+      <c r="D21" s="79">
+        <v>43769</v>
+      </c>
+      <c r="E21" s="80">
+        <v>2527011</v>
+      </c>
+      <c r="F21" s="80">
+        <v>2734020</v>
+      </c>
+      <c r="G21" s="81">
+        <f>F21/A$21</f>
+        <v>0.16273928571428573</v>
+      </c>
+      <c r="H21" s="82">
+        <f>A21-F21</f>
+        <v>14065980</v>
+      </c>
+      <c r="I21" s="83">
+        <f>1-G21</f>
+        <v>0.83726071428571425</v>
+      </c>
+      <c r="J21" s="74"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A22" s="44"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="81">
+        <f>F22/A$21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="97">
-        <f>H20-F21</f>
-        <v>15179294</v>
-      </c>
-      <c r="I21" s="98">
-        <f>I20-G21</f>
-        <v>0.9035294047619048</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="15"/>
+      <c r="H22" s="86">
+        <f>H21-F22</f>
+        <v>14065980</v>
+      </c>
+      <c r="I22" s="87">
+        <f>I21-G22</f>
+        <v>0.83726071428571425</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A23" s="13"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="1"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="15"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="84"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="15"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="75"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="15"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="15"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="15"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="15"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
+    <row r="30" spans="1:12">
+      <c r="A30" s="13"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="26"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A31" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="65">
-        <f>SUM(E20:E30)</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="64">
-        <f>SUM(F20:F30)</f>
-        <v>1620706</v>
-      </c>
-      <c r="G31" s="27">
-        <f>SUM(G20:G30)</f>
-        <v>9.6470595238095244E-2</v>
-      </c>
-      <c r="H31" s="23">
-        <f>A20-F31</f>
-        <v>15179294</v>
-      </c>
-      <c r="I31" s="36">
-        <f>1-G31</f>
-        <v>0.9035294047619048</v>
-      </c>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A35" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A32" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="57">
+        <f>SUM(E21:E31)</f>
+        <v>2527011</v>
+      </c>
+      <c r="F32" s="56">
+        <f>SUM(F21:F31)</f>
+        <v>2734020</v>
+      </c>
+      <c r="G32" s="25">
+        <f>SUM(G21:G31)</f>
+        <v>0.16273928571428573</v>
+      </c>
+      <c r="H32" s="21">
+        <f>A21-F32</f>
+        <v>14065980</v>
+      </c>
+      <c r="I32" s="34">
+        <f>1-G32</f>
+        <v>0.83726071428571425</v>
+      </c>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2071,17 +1972,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="111" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="111"/>
-      <c r="C36" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>18</v>
-      </c>
+    <row r="36" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A36" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2089,58 +1986,59 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="109">
-        <f>A20-F31</f>
-        <v>15179294</v>
-      </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="89">
-        <f>1-G31</f>
-        <v>0.9035294047619048</v>
-      </c>
-      <c r="D37" s="24">
-        <f>(C37/0.8)*100</f>
-        <v>112.94117559523809</v>
+    <row r="37" spans="1:11">
+      <c r="A37" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="98"/>
+      <c r="C37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="96">
+        <f>A21-F32</f>
+        <v>14065980</v>
+      </c>
+      <c r="B38" s="97"/>
+      <c r="C38" s="78">
+        <f>1-G32</f>
+        <v>0.83726071428571425</v>
+      </c>
+      <c r="D38" s="22">
+        <f>(C38/0.8)*100</f>
+        <v>104.65758928571427</v>
+      </c>
+      <c r="E38" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.6">
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2148,193 +2046,208 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="108"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="71"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="72"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="71"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="72"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="71"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="72"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="71"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="72"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="71"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="72"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="71"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="71"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="72"/>
+      <c r="K40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.6">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="95"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="63"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="64"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="63"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="64"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="63"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="64"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="63"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="64"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="63"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="64"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="63"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="71"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="72"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="64"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="71"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="72"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.6">
-      <c r="A51" s="1"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="108"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="64"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="63"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="64"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.6">
+      <c r="A52" s="1"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="71"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="95"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="71"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="102"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="1"/>
+      <c r="A55" s="63"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="B60" s="107"/>
-      <c r="C60" s="108"/>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="107"/>
-      <c r="C67" s="108"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" s="94"/>
+      <c r="C61" s="95"/>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="94"/>
+      <c r="C68" s="95"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
     <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G37:L37"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2342,7 +2255,7 @@
   <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="37" max="12" man="1"/>
+    <brk id="38" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Шапка.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Шапка.xlsx
@@ -113,9 +113,6 @@
     <t>Воронка</t>
   </si>
   <si>
-    <t>Начальник СПО                                             А.Д. Гавриленко</t>
-  </si>
-  <si>
     <t>Втулка плунжера</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>Формокомплект бутылки  "Круглая 0.2" тип ХХI-В-28-1-200-5</t>
+  </si>
+  <si>
+    <t>Начальник УРФ                                             А.Д. Гавриленко</t>
   </si>
 </sst>
 </file>
@@ -902,6 +902,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,20 +925,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1256,49 +1256,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="103" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
+      <c r="A1" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
       <c r="J1" s="93"/>
       <c r="K1" s="93"/>
       <c r="L1" s="93"/>
     </row>
     <row r="2" spans="1:13" ht="15.6">
-      <c r="A2" s="103" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
+      <c r="A2" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
       <c r="J2" s="89"/>
       <c r="K2" s="89"/>
       <c r="L2" s="89"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
+      <c r="A3" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
       <c r="K3" s="37"/>
       <c r="L3" s="37"/>
       <c r="M3" s="1"/>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1">
       <c r="A5" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>0</v>
@@ -1326,19 +1326,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="92" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="92" t="s">
-        <v>32</v>
       </c>
       <c r="I5" s="73"/>
       <c r="J5" s="73"/>
@@ -1353,7 +1353,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="47">
         <v>24</v>
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7">
         <v>24</v>
@@ -1409,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="7">
         <v>32</v>
@@ -1437,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7">
         <v>32</v>
@@ -1465,7 +1465,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
         <v>20</v>
@@ -1490,10 +1490,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
         <v>20</v>
@@ -1521,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7">
         <v>60</v>
@@ -1550,7 +1550,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
         <v>20</v>
@@ -1579,7 +1579,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7">
         <v>8</v>
@@ -1609,7 +1609,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="7">
         <v>50</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7">
         <v>60</v>
@@ -1665,10 +1665,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="51">
         <v>24</v>
@@ -1973,12 +1973,12 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1987,10 +1987,10 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="98" t="s">
+      <c r="A37" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="98"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="10" t="s">
         <v>15</v>
       </c>
@@ -2005,11 +2005,11 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="96">
+      <c r="A38" s="102">
         <f>A21-F32</f>
         <v>14065980</v>
       </c>
-      <c r="B38" s="97"/>
+      <c r="B38" s="103"/>
       <c r="C38" s="78">
         <f>1-G32</f>
         <v>0.83726071428571425</v>
@@ -2019,7 +2019,7 @@
         <v>104.65758928571427</v>
       </c>
       <c r="E38" s="90" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F38" s="90"/>
       <c r="G38" s="90"/>
@@ -2071,8 +2071,8 @@
       <c r="F42" s="62"/>
       <c r="G42" s="62"/>
       <c r="H42" s="62"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="95"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="101"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="63"/>
@@ -2166,9 +2166,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="1"/>
-      <c r="B52" s="101"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="102"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="97"/>
       <c r="E52" s="68"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2185,8 +2185,8 @@
       <c r="F53" s="62"/>
       <c r="G53" s="62"/>
       <c r="H53" s="62"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="95"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="101"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="63"/>
@@ -2197,8 +2197,8 @@
       <c r="F54" s="65"/>
       <c r="G54" s="65"/>
       <c r="H54" s="64"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="63"/>
@@ -2209,8 +2209,8 @@
       <c r="F55" s="66"/>
       <c r="G55" s="66"/>
       <c r="H55" s="66"/>
-      <c r="I55" s="99"/>
-      <c r="J55" s="99"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1"/>
@@ -2223,24 +2223,18 @@
       <c r="H56" s="1"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="94"/>
-      <c r="C61" s="95"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="101"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="94"/>
-      <c r="C68" s="95"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="101"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
@@ -2248,6 +2242,12 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
